--- a/results/I3_N5_M2_T15_C150_DepCentral_s3_P1_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>597.4282073939518</v>
+        <v>974.6997292210331</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.94820739395058</v>
+        <v>20.71423809492234</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.354665156662408</v>
+        <v>2.957840319717379</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.354665156662408</v>
+        <v>2.94333144582801</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>359.8400000000012</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.64</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,6 +623,17 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -896,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.069516742254631</v>
+        <v>6.579377207014334</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.699445611809518</v>
+        <v>9.684936737920157</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.37517619638956</v>
+        <v>12.37517619638957</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.05666855417199</v>
+        <v>12.04215968028263</v>
       </c>
     </row>
     <row r="8">
@@ -944,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>13.61204927984102</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,7 +1001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -1004,7 +1015,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -1018,7 +1029,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -1032,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -1041,6 +1052,90 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1143,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.00999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1154,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1198,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.5199999999994</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1209,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.7649999999994</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1220,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>134.9399999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1231,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>139.9649999999994</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1242,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>138.1299999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1253,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1264,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1275,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1286,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1297,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1308,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0100000000001</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -1319,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7850000000001</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -1330,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8050000000001</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3100000000001</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -1352,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9950000000001</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>178.4950000000001</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
@@ -1374,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>189.2100000000002</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -1385,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>177.3</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -1396,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>195.2850000000002</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1407,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>189.6300000000002</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>178.4950000000001</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33">
@@ -1429,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>189.2100000000002</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
@@ -1440,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>177.3</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35">
@@ -1451,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>195.2850000000002</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36">
@@ -1462,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>189.6300000000002</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37">
@@ -1473,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.0100000000001</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1484,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>107.7850000000001</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -1495,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>116.8050000000001</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1506,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>101.3100000000001</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1517,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>109.9950000000001</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>28.49500000000012</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -1575,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>39.21000000000015</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
@@ -1586,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>27.3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -1597,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>45.28500000000017</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1608,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>39.63000000000017</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1710,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1721,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1732,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1743,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1754,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1765,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1776,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1787,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1798,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1820,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1831,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1842,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1853,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1864,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1988,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2026,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2037,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2048,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2059,12 +2154,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
